--- a/Data on Uav.xlsx
+++ b/Data on Uav.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
   <si>
     <t>Types/Parameter</t>
   </si>
   <si>
-    <t>Urban Aeronautics X-Hawk</t>
-  </si>
-  <si>
     <t>Seats</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>1.68 kg/km</t>
   </si>
   <si>
-    <t>Lilium Jet</t>
-  </si>
-  <si>
     <t>two</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Not Specified</t>
   </si>
   <si>
-    <t>Boeing Passenger Air Vehicle</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8 × Vertical Electric each 100 hp (75 kW)</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>180 km/h</t>
   </si>
   <si>
-    <t>Parajet Skycar</t>
-  </si>
-  <si>
     <t>1 × Modified Yamaha YZF-R1 1000 cc inline-4, 140 bhp (104 kW)</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>Not specified</t>
   </si>
   <si>
-    <t>Terrafugia Transition</t>
-  </si>
-  <si>
     <t>1 × Rotax 912ULS, 100 hp (75 kW) @ 5800 rpm (max. 5 minutes), 95 hp (71 kW) @ 5500 rpm (continuous)</t>
   </si>
   <si>
@@ -135,9 +120,6 @@
     <t xml:space="preserve"> 172 km/h</t>
   </si>
   <si>
-    <t>Xplorair</t>
-  </si>
-  <si>
     <t>Thermoreactor jet engine</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t>700kg</t>
   </si>
   <si>
-    <t>Gwinn Aircar</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 × Pobjoy Niagara II 7-cylinder air-cooled geared radial piston engine, 95 hp (71 kW) (original engine)</t>
   </si>
   <si>
@@ -168,9 +147,6 @@
     <t>189.9 km/h</t>
   </si>
   <si>
-    <t>Aerocar</t>
-  </si>
-  <si>
     <t>1 × Lycoming O-320 air-cooled flat-four, 143 hp (107 kW)</t>
   </si>
   <si>
@@ -186,18 +162,12 @@
     <t>953 kg</t>
   </si>
   <si>
-    <t>AVE Mizar</t>
-  </si>
-  <si>
     <t>four</t>
   </si>
   <si>
     <t>1 × Continental IO-360-C, 210 hp (157 kW)</t>
   </si>
   <si>
-    <t>Volocopter 2X</t>
-  </si>
-  <si>
     <t>18 × three-phase PM synchronous brushless DC electric motors</t>
   </si>
   <si>
@@ -258,9 +228,6 @@
     <t>1300hp lithium ion battery, less than 200hp(150kW)</t>
   </si>
   <si>
-    <t>SureFly</t>
-  </si>
-  <si>
     <t>1 × dual generators Fuel Piston Engine, 200[7] hp (150 kW) 8 × electric fixed pitch propeller</t>
   </si>
   <si>
@@ -285,9 +252,6 @@
     <t>carbon fiber composites</t>
   </si>
   <si>
-    <t>Carter Pav</t>
-  </si>
-  <si>
     <t>glass,fiber,aluminium,titanium and steel as well as autoclaved carbon/epoxy  prepreg with aramid honeycomb core</t>
   </si>
   <si>
@@ -298,13 +262,143 @@
   </si>
   <si>
     <t>USD$0.25million</t>
+  </si>
+  <si>
+    <t>907kg</t>
+  </si>
+  <si>
+    <t>1724kg</t>
+  </si>
+  <si>
+    <t>1 × Suzuki Hayabusa four cylinder, liquid and air-cooled, four stroke aircraft engine, 170 hp (130 kW)</t>
+  </si>
+  <si>
+    <t>200 mph (320 km/h, 170 kn) in the air, 100 mph (161 km/h) on the ground</t>
+  </si>
+  <si>
+    <t>30 gal. including reserve / 114 L</t>
+  </si>
+  <si>
+    <t>794 kg</t>
+  </si>
+  <si>
+    <t>34 L/hr in air , 17 km/L on road</t>
+  </si>
+  <si>
+    <t>Engine-Samson 190hp liquid cooled V4</t>
+  </si>
+  <si>
+    <t>$120,000</t>
+  </si>
+  <si>
+    <t>8 × 530cc Rotapower rotary engines, 180 hp (138 kW) each</t>
+  </si>
+  <si>
+    <t>Continuous Engine Power (Total)- 535 kw</t>
+  </si>
+  <si>
+    <t>1,088 kg</t>
+  </si>
+  <si>
+    <t>1,415 kg</t>
+  </si>
+  <si>
+    <t>533 km/h</t>
+  </si>
+  <si>
+    <t>9 kpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 × Rotax 912 ULS , 75 kW (100 hp)</t>
+  </si>
+  <si>
+    <t>283 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 289 kg</t>
+  </si>
+  <si>
+    <t>600kg</t>
+  </si>
+  <si>
+    <t>100 litres</t>
+  </si>
+  <si>
+    <t>Pipistrel Virus(https://en.m.wikipedia.org/wiki/Pipistrel_Virus)</t>
+  </si>
+  <si>
+    <t>1 × Rotax 912ULS four cylinder, liquid and air-cooled, four stroke aircraft engine, 75 kW (101 hp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100 litres (22 imp gal; 26 US gal) in two 50 litres (11 imp gal; 13 US gal) tanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 285 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 472.5 kg</t>
+  </si>
+  <si>
+    <t>150 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€69,000
+</t>
+  </si>
+  <si>
+    <t>Urban Aeronautics X-Hawk(https://en.wikipedia.org/wiki/Urban_Aeronautics_X-Hawk)</t>
+  </si>
+  <si>
+    <t>Lilium Jet(https://en.wikipedia.org/wiki/Lilium_Jet)</t>
+  </si>
+  <si>
+    <t>Boeing Passenger Air Vehicle(https://en.wikipedia.org/wiki/Boeing_Passenger_Air_Vehicle)</t>
+  </si>
+  <si>
+    <t>Parajet Skycar(https://en.wikipedia.org/wiki/Parajet_Skycar)</t>
+  </si>
+  <si>
+    <t>Terrafugia Transition(https://en.m.wikipedia.org/wiki/Terrafugia_Transition)</t>
+  </si>
+  <si>
+    <t>Xplorair(https://en.wikipedia.org/wiki/Xplorair)</t>
+  </si>
+  <si>
+    <t>Gwinn Aircar(https://en.wikipedia.org/wiki/Gwinn_Aircar)</t>
+  </si>
+  <si>
+    <t>Aerocar(https://en.wikipedia.org/wiki/Aerocar)</t>
+  </si>
+  <si>
+    <t>AVE Mizar(https://en.wikipedia.org/wiki/AVE_Mizar)</t>
+  </si>
+  <si>
+    <t>Volocopter 2X(https://en.wikipedia.org/wiki/Volocopter_2X)</t>
+  </si>
+  <si>
+    <t>SureFly(https://en.wikipedia.org/wiki/Workhorse_SureFly)</t>
+  </si>
+  <si>
+    <t>Carter Pav(https://en.wikipedia.org/wiki/Carter_PAV)</t>
+  </si>
+  <si>
+    <t>Samson Switchblade(https://www.samsonsky.com/)</t>
+  </si>
+  <si>
+    <t>Moller Skycar M400(https://en.wikipedia.org/wiki/Moller_M400_Skycar)</t>
+  </si>
+  <si>
+    <t>Distar UFM-13 Lambada(https://en.wikipedia.org/wiki/Distar_UFM-13_Lambada)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +413,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -347,11 +447,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,390 +753,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="82.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="90.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="7" max="7" width="65.28515625" customWidth="1"/>
     <col min="8" max="8" width="40.85546875" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
     <col min="10" max="10" width="104.5703125" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30.75">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" t="s">
-        <v>90</v>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="4">
+        <v>61000</v>
       </c>
     </row>
   </sheetData>
